--- a/Horarios2025.xlsx
+++ b/Horarios2025.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="1" state="visible" r:id="rId3"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="76">
   <si>
     <t xml:space="preserve">IC Zurich HB – Schaffhausen</t>
   </si>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">Salida</t>
   </si>
   <si>
-    <t xml:space="preserve">Zurich HB</t>
+    <t xml:space="preserve">ZH</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaffhausen</t>
+    <t xml:space="preserve">SH</t>
   </si>
   <si>
     <t xml:space="preserve">IC Schaffhausen – Zurich HB</t>
@@ -62,31 +62,31 @@
     <t xml:space="preserve">GE-AP</t>
   </si>
   <si>
-    <t xml:space="preserve">Genf</t>
+    <t xml:space="preserve">GE</t>
   </si>
   <si>
     <t xml:space="preserve">Renens</t>
   </si>
   <si>
-    <t xml:space="preserve">Lausanne</t>
+    <t xml:space="preserve">LS</t>
   </si>
   <si>
-    <t xml:space="preserve">Fribourg</t>
+    <t xml:space="preserve">FR</t>
   </si>
   <si>
-    <t xml:space="preserve">Bern</t>
+    <t xml:space="preserve">BE</t>
   </si>
   <si>
-    <t xml:space="preserve">Zurich Oerlikon</t>
+    <t xml:space="preserve">ZH-Oerlikon</t>
   </si>
   <si>
-    <t xml:space="preserve">Zurich AP</t>
+    <t xml:space="preserve">ZH-AP</t>
   </si>
   <si>
     <t xml:space="preserve">Winterthur</t>
   </si>
   <si>
-    <t xml:space="preserve">Wil SG</t>
+    <t xml:space="preserve">Wil</t>
   </si>
   <si>
     <t xml:space="preserve">Uzwil</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Gossau</t>
   </si>
   <si>
-    <t xml:space="preserve">St Gallen</t>
+    <t xml:space="preserve">SG</t>
   </si>
   <si>
     <t xml:space="preserve">IC1 St Gallen – Genf AP</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">IC3 Basel – Chur</t>
   </si>
   <si>
-    <t xml:space="preserve">Basel</t>
+    <t xml:space="preserve">BS</t>
   </si>
   <si>
     <t xml:space="preserve">Sargans</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">Yverdon</t>
   </si>
   <si>
-    <t xml:space="preserve">Neuchatel</t>
+    <t xml:space="preserve">NE</t>
   </si>
   <si>
     <t xml:space="preserve">Biel</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">Aarau</t>
   </si>
   <si>
-    <t xml:space="preserve">Rorschach</t>
+    <t xml:space="preserve">Rorscharch</t>
   </si>
   <si>
     <t xml:space="preserve">IC5 Rorschach – Lausanne</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">IC5 Lausanne – St Gallen</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenchen Sud</t>
+    <t xml:space="preserve">Grenchen</t>
   </si>
   <si>
     <t xml:space="preserve">Oesingen</t>
@@ -242,28 +242,22 @@
     <t xml:space="preserve">Moutier</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenchen</t>
-  </si>
-  <si>
     <t xml:space="preserve">IC51 Biel – Basel</t>
   </si>
   <si>
     <t xml:space="preserve">IC61 Basel – Interlaken Ost</t>
   </si>
   <si>
-    <t xml:space="preserve">Interlaken West</t>
+    <t xml:space="preserve">IL West</t>
   </si>
   <si>
-    <t xml:space="preserve">Interlaken Ost</t>
+    <t xml:space="preserve">Interlaken</t>
   </si>
   <si>
     <t xml:space="preserve">IC61 Interlaken Ost – Basel</t>
   </si>
   <si>
     <t xml:space="preserve">IC81 Romanshorn – Interlaken Ost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zurich-AP</t>
   </si>
   <si>
     <t xml:space="preserve">IC81 Interlaken Ost – Romanshorn</t>
@@ -314,18 +308,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -376,7 +364,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -385,12 +373,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -417,12 +405,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -445,8 +429,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -574,8 +558,8 @@
   </sheetPr>
   <dimension ref="A1:AK1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG17" activeCellId="0" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -587,44 +571,48 @@
       <c r="A1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="n">
+        <v>31</v>
+      </c>
       <c r="C1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="n">
-        <v>6</v>
+      <c r="D1" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="n">
+        <v>37</v>
+      </c>
       <c r="G1" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -1476,43 +1464,43 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="n">
+      <c r="A1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="n">
+      <c r="B1" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -2523,66 +2511,66 @@
   </sheetPr>
   <dimension ref="A1:AL22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="n">
+      <c r="A1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="n">
+      <c r="B1" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -3303,7 +3291,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>700</v>
@@ -3587,7 +3575,7 @@
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3884,7 +3872,7 @@
     </row>
     <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>558</v>
@@ -4641,47 +4629,47 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16361" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16361" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="n">
+      <c r="A1" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B1" s="15" t="n">
-        <v>43</v>
-      </c>
-      <c r="C1" s="15" t="n">
+      <c r="B1" s="14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="n">
+      <c r="D1" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="E1" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="15" t="n">
-        <v>39</v>
-      </c>
-      <c r="G1" s="15" t="n">
+      <c r="E1" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="H1" s="15" t="n">
+      <c r="G1" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -4689,7 +4677,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -5215,7 +5203,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>853</v>
@@ -5288,7 +5276,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>859</v>
@@ -5364,7 +5352,7 @@
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5382,8 +5370,8 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -5437,12 +5425,12 @@
       <c r="Q16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>555</v>
@@ -5511,7 +5499,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>603</v>
@@ -6018,50 +6006,50 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16356" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16356" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="n">
+      <c r="A1" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B1" s="15" t="n">
-        <v>43</v>
-      </c>
-      <c r="C1" s="15" t="n">
+      <c r="B1" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="E1" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="15" t="n">
-        <v>39</v>
-      </c>
-      <c r="G1" s="15" t="n">
-        <v>17</v>
-      </c>
-      <c r="H1" s="15" t="n">
-        <v>24</v>
-      </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="D1" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -6075,7 +6063,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="13"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -6117,7 +6105,7 @@
       <c r="M3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
@@ -6381,7 +6369,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>922</v>
@@ -6433,7 +6421,7 @@
     </row>
     <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>928</v>
@@ -6487,22 +6475,23 @@
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="A14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -6553,7 +6542,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>625</v>
@@ -6612,7 +6601,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>633</v>
@@ -6989,49 +6978,49 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="n">
+      <c r="A1" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B1" s="15" t="n">
-        <v>43</v>
-      </c>
-      <c r="C1" s="15" t="n">
+      <c r="B1" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="E1" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="15" t="n">
-        <v>39</v>
-      </c>
-      <c r="G1" s="15" t="n">
-        <v>17</v>
-      </c>
-      <c r="H1" s="15" t="n">
-        <v>24</v>
-      </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="D1" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1" s="14" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -7045,7 +7034,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="13"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -7087,7 +7076,7 @@
       <c r="M3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
@@ -7351,7 +7340,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>744</v>
@@ -7611,7 +7600,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>953</v>
@@ -7663,7 +7652,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>959</v>
@@ -7713,18 +7702,9 @@
       </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-    </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -7739,7 +7719,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="17"/>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -7790,7 +7770,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>655</v>
@@ -7849,7 +7829,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>703</v>
@@ -8144,7 +8124,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B27" s="7" t="n">
         <v>914</v>
@@ -8497,8 +8477,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A19:O19"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8518,7 +8499,7 @@
   <dimension ref="A1:AK38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8527,51 +8508,51 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="n">
+      <c r="A1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3" t="n">
+      <c r="B1" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G1" s="3" t="n">
+      <c r="D1" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
+      <c r="H1" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -12806,45 +12787,45 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="n">
+      <c r="A1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="n">
+      <c r="B1" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="n">
+      <c r="C1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="n">
+      <c r="E1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -13822,54 +13803,54 @@
   <dimension ref="A1:BI21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16379" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16379" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="n">
+      <c r="A1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="n">
+      <c r="B1" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="G1" s="3" t="n">
+      <c r="E1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -15463,7 +15444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
@@ -15551,123 +15532,123 @@
         <f aca="false">S13+100</f>
         <v>1108</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="X13" s="1" t="n">
         <f aca="false">V13+100</f>
         <v>1205</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Y13" s="1" t="n">
         <f aca="false">W13+100</f>
         <v>1208</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="Z13" s="1" t="n">
         <f aca="false">T13+200</f>
         <v>1235</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AA13" s="1" t="n">
         <f aca="false">U13+200</f>
         <v>1238</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AB13" s="1" t="n">
         <f aca="false">X13+100</f>
         <v>1305</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AC13" s="1" t="n">
         <f aca="false">Y13+100</f>
         <v>1308</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AD13" s="1" t="n">
         <f aca="false">AB13+100</f>
         <v>1405</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AE13" s="1" t="n">
         <f aca="false">AC13+100</f>
         <v>1408</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AF13" s="1" t="n">
         <f aca="false">Z13+200</f>
         <v>1435</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AG13" s="1" t="n">
         <f aca="false">AA13+200</f>
         <v>1438</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AH13" s="1" t="n">
         <f aca="false">AD13+100</f>
         <v>1505</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AI13" s="1" t="n">
         <f aca="false">AE13+100</f>
         <v>1508</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AJ13" s="1" t="n">
         <f aca="false">AH13+100</f>
         <v>1605</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AK13" s="1" t="n">
         <f aca="false">AI13+100</f>
         <v>1608</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AL13" s="1" t="n">
         <f aca="false">AF13+200</f>
         <v>1635</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AM13" s="1" t="n">
         <f aca="false">AG13+200</f>
         <v>1638</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AN13" s="1" t="n">
         <f aca="false">AJ13+100</f>
         <v>1705</v>
       </c>
-      <c r="AO13" s="0" t="n">
+      <c r="AO13" s="1" t="n">
         <f aca="false">AK13+100</f>
         <v>1708</v>
       </c>
-      <c r="AP13" s="0" t="n">
+      <c r="AP13" s="1" t="n">
         <f aca="false">AL13+100</f>
         <v>1735</v>
       </c>
-      <c r="AQ13" s="0" t="n">
+      <c r="AQ13" s="1" t="n">
         <f aca="false">AM13+100</f>
         <v>1738</v>
       </c>
-      <c r="AR13" s="0" t="n">
+      <c r="AR13" s="1" t="n">
         <f aca="false">AN13+100</f>
         <v>1805</v>
       </c>
-      <c r="AS13" s="0" t="n">
+      <c r="AS13" s="1" t="n">
         <f aca="false">AO13+100</f>
         <v>1808</v>
       </c>
-      <c r="AT13" s="0" t="n">
+      <c r="AT13" s="1" t="n">
         <f aca="false">AP13+100</f>
         <v>1835</v>
       </c>
-      <c r="AU13" s="0" t="n">
+      <c r="AU13" s="1" t="n">
         <f aca="false">AQ13+100</f>
         <v>1838</v>
       </c>
-      <c r="AV13" s="0" t="n">
+      <c r="AV13" s="1" t="n">
         <f aca="false">AR13+100</f>
         <v>1905</v>
       </c>
-      <c r="AW13" s="0" t="n">
+      <c r="AW13" s="1" t="n">
         <f aca="false">AS13+100</f>
         <v>1908</v>
       </c>
-      <c r="AX13" s="0" t="n">
+      <c r="AX13" s="1" t="n">
         <f aca="false">AV13+100</f>
         <v>2005</v>
       </c>
-      <c r="AY13" s="0" t="n">
+      <c r="AY13" s="1" t="n">
         <f aca="false">AW13+100</f>
         <v>2008</v>
       </c>
-      <c r="AZ13" s="0" t="n">
+      <c r="AZ13" s="1" t="n">
         <f aca="false">AX13+100</f>
         <v>2105</v>
       </c>
-      <c r="BA13" s="0" t="n">
+      <c r="BA13" s="1" t="n">
         <f aca="false">AY13+100</f>
         <v>2108</v>
       </c>
@@ -15760,123 +15741,123 @@
         <f aca="false">S14+100</f>
         <v>1118</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="X14" s="1" t="n">
         <f aca="false">V14+100</f>
         <v>1217</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Y14" s="1" t="n">
         <f aca="false">W14+100</f>
         <v>1218</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="Z14" s="1" t="n">
         <f aca="false">T14+200</f>
         <v>1247</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AA14" s="1" t="n">
         <f aca="false">U14+200</f>
         <v>1248</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AB14" s="1" t="n">
         <f aca="false">X14+100</f>
         <v>1317</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AC14" s="1" t="n">
         <f aca="false">Y14+100</f>
         <v>1318</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AD14" s="1" t="n">
         <f aca="false">AB14+100</f>
         <v>1417</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AE14" s="1" t="n">
         <f aca="false">AC14+100</f>
         <v>1418</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AF14" s="1" t="n">
         <f aca="false">Z14+200</f>
         <v>1447</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AG14" s="1" t="n">
         <f aca="false">AA14+200</f>
         <v>1448</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AH14" s="1" t="n">
         <f aca="false">AD14+100</f>
         <v>1517</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AI14" s="1" t="n">
         <f aca="false">AE14+100</f>
         <v>1518</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AJ14" s="1" t="n">
         <f aca="false">AH14+100</f>
         <v>1617</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AK14" s="1" t="n">
         <f aca="false">AI14+100</f>
         <v>1618</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AL14" s="1" t="n">
         <f aca="false">AF14+200</f>
         <v>1647</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AM14" s="1" t="n">
         <f aca="false">AG14+200</f>
         <v>1648</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AN14" s="1" t="n">
         <f aca="false">AJ14+100</f>
         <v>1717</v>
       </c>
-      <c r="AO14" s="0" t="n">
+      <c r="AO14" s="1" t="n">
         <f aca="false">AK14+100</f>
         <v>1718</v>
       </c>
-      <c r="AP14" s="0" t="n">
+      <c r="AP14" s="1" t="n">
         <f aca="false">AL14+100</f>
         <v>1747</v>
       </c>
-      <c r="AQ14" s="0" t="n">
+      <c r="AQ14" s="1" t="n">
         <f aca="false">AM14+100</f>
         <v>1748</v>
       </c>
-      <c r="AR14" s="0" t="n">
+      <c r="AR14" s="1" t="n">
         <f aca="false">AN14+100</f>
         <v>1817</v>
       </c>
-      <c r="AS14" s="0" t="n">
+      <c r="AS14" s="1" t="n">
         <f aca="false">AO14+100</f>
         <v>1818</v>
       </c>
-      <c r="AT14" s="0" t="n">
+      <c r="AT14" s="1" t="n">
         <f aca="false">AP14+100</f>
         <v>1847</v>
       </c>
-      <c r="AU14" s="0" t="n">
+      <c r="AU14" s="1" t="n">
         <f aca="false">AQ14+100</f>
         <v>1848</v>
       </c>
-      <c r="AV14" s="0" t="n">
+      <c r="AV14" s="1" t="n">
         <f aca="false">AR14+100</f>
         <v>1917</v>
       </c>
-      <c r="AW14" s="0" t="n">
+      <c r="AW14" s="1" t="n">
         <f aca="false">AS14+100</f>
         <v>1918</v>
       </c>
-      <c r="AX14" s="0" t="n">
+      <c r="AX14" s="1" t="n">
         <f aca="false">AV14+100</f>
         <v>2017</v>
       </c>
-      <c r="AY14" s="0" t="n">
+      <c r="AY14" s="1" t="n">
         <f aca="false">AW14+100</f>
         <v>2018</v>
       </c>
-      <c r="AZ14" s="0" t="n">
+      <c r="AZ14" s="1" t="n">
         <f aca="false">AX14+100</f>
         <v>2117</v>
       </c>
-      <c r="BA14" s="0" t="n">
+      <c r="BA14" s="1" t="n">
         <f aca="false">AY14+100</f>
         <v>2118</v>
       </c>
@@ -15969,123 +15950,123 @@
         <f aca="false">S15+100</f>
         <v>1127</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="X15" s="1" t="n">
         <f aca="false">V15+100</f>
         <v>1226</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Y15" s="1" t="n">
         <f aca="false">W15+100</f>
         <v>1227</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="Z15" s="1" t="n">
         <f aca="false">T15+200</f>
         <v>1256</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AA15" s="1" t="n">
         <f aca="false">U15+200</f>
         <v>1257</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AB15" s="1" t="n">
         <f aca="false">X15+100</f>
         <v>1326</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AC15" s="1" t="n">
         <f aca="false">Y15+100</f>
         <v>1327</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AD15" s="1" t="n">
         <f aca="false">AB15+100</f>
         <v>1426</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AE15" s="1" t="n">
         <f aca="false">AC15+100</f>
         <v>1427</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AF15" s="1" t="n">
         <f aca="false">Z15+200</f>
         <v>1456</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AG15" s="1" t="n">
         <f aca="false">AA15+200</f>
         <v>1457</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AH15" s="1" t="n">
         <f aca="false">AD15+100</f>
         <v>1526</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AI15" s="1" t="n">
         <f aca="false">AE15+100</f>
         <v>1527</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AJ15" s="1" t="n">
         <f aca="false">AH15+100</f>
         <v>1626</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AK15" s="1" t="n">
         <f aca="false">AI15+100</f>
         <v>1627</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AL15" s="1" t="n">
         <f aca="false">AF15+200</f>
         <v>1656</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AM15" s="1" t="n">
         <f aca="false">AG15+200</f>
         <v>1657</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AN15" s="1" t="n">
         <f aca="false">AJ15+100</f>
         <v>1726</v>
       </c>
-      <c r="AO15" s="0" t="n">
+      <c r="AO15" s="1" t="n">
         <f aca="false">AK15+100</f>
         <v>1727</v>
       </c>
-      <c r="AP15" s="0" t="n">
+      <c r="AP15" s="1" t="n">
         <f aca="false">AL15+100</f>
         <v>1756</v>
       </c>
-      <c r="AQ15" s="0" t="n">
+      <c r="AQ15" s="1" t="n">
         <f aca="false">AM15+100</f>
         <v>1757</v>
       </c>
-      <c r="AR15" s="0" t="n">
+      <c r="AR15" s="1" t="n">
         <f aca="false">AN15+100</f>
         <v>1826</v>
       </c>
-      <c r="AS15" s="0" t="n">
+      <c r="AS15" s="1" t="n">
         <f aca="false">AO15+100</f>
         <v>1827</v>
       </c>
-      <c r="AT15" s="0" t="n">
+      <c r="AT15" s="1" t="n">
         <f aca="false">AP15+100</f>
         <v>1856</v>
       </c>
-      <c r="AU15" s="0" t="n">
+      <c r="AU15" s="1" t="n">
         <f aca="false">AQ15+100</f>
         <v>1857</v>
       </c>
-      <c r="AV15" s="0" t="n">
+      <c r="AV15" s="1" t="n">
         <f aca="false">AR15+100</f>
         <v>1926</v>
       </c>
-      <c r="AW15" s="0" t="n">
+      <c r="AW15" s="1" t="n">
         <f aca="false">AS15+100</f>
         <v>1927</v>
       </c>
-      <c r="AX15" s="0" t="n">
+      <c r="AX15" s="1" t="n">
         <f aca="false">AV15+100</f>
         <v>2026</v>
       </c>
-      <c r="AY15" s="0" t="n">
+      <c r="AY15" s="1" t="n">
         <f aca="false">AW15+100</f>
         <v>2027</v>
       </c>
-      <c r="AZ15" s="0" t="n">
+      <c r="AZ15" s="1" t="n">
         <f aca="false">AX15+100</f>
         <v>2126</v>
       </c>
-      <c r="BA15" s="0" t="n">
+      <c r="BA15" s="1" t="n">
         <f aca="false">AY15+100</f>
         <v>2127</v>
       </c>
@@ -16178,123 +16159,123 @@
         <f aca="false">S16+100</f>
         <v>1234</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="X16" s="1" t="n">
         <f aca="false">V16+100</f>
         <v>1322</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Y16" s="1" t="n">
         <f aca="false">W16+100</f>
         <v>1334</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="Z16" s="1" t="n">
         <f aca="false">T16+200</f>
         <v>1353</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AA16" s="1" t="n">
         <f aca="false">U16+200</f>
         <v>1359</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AB16" s="1" t="n">
         <f aca="false">X16+100</f>
         <v>1422</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AC16" s="1" t="n">
         <f aca="false">Y16+100</f>
         <v>1434</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AD16" s="1" t="n">
         <f aca="false">AB16+100</f>
         <v>1522</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AE16" s="1" t="n">
         <f aca="false">AC16+100</f>
         <v>1534</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AF16" s="1" t="n">
         <f aca="false">Z16+200</f>
         <v>1553</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AG16" s="1" t="n">
         <f aca="false">AA16+200</f>
         <v>1559</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AH16" s="1" t="n">
         <f aca="false">AD16+100</f>
         <v>1622</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AI16" s="1" t="n">
         <f aca="false">AE16+100</f>
         <v>1634</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AJ16" s="1" t="n">
         <f aca="false">AH16+100</f>
         <v>1722</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AK16" s="1" t="n">
         <f aca="false">AI16+100</f>
         <v>1734</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AL16" s="1" t="n">
         <f aca="false">AF16+200</f>
         <v>1753</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AM16" s="1" t="n">
         <f aca="false">AG16+200</f>
         <v>1759</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AN16" s="1" t="n">
         <f aca="false">AJ16+100</f>
         <v>1822</v>
       </c>
-      <c r="AO16" s="0" t="n">
+      <c r="AO16" s="1" t="n">
         <f aca="false">AK16+100</f>
         <v>1834</v>
       </c>
-      <c r="AP16" s="0" t="n">
+      <c r="AP16" s="1" t="n">
         <f aca="false">AL16+100</f>
         <v>1853</v>
       </c>
-      <c r="AQ16" s="0" t="n">
+      <c r="AQ16" s="1" t="n">
         <f aca="false">AM16+100</f>
         <v>1859</v>
       </c>
-      <c r="AR16" s="0" t="n">
+      <c r="AR16" s="1" t="n">
         <f aca="false">AN16+100</f>
         <v>1922</v>
       </c>
-      <c r="AS16" s="0" t="n">
+      <c r="AS16" s="1" t="n">
         <f aca="false">AO16+100</f>
         <v>1934</v>
       </c>
-      <c r="AT16" s="0" t="n">
+      <c r="AT16" s="1" t="n">
         <f aca="false">AP16+100</f>
         <v>1953</v>
       </c>
-      <c r="AU16" s="0" t="n">
+      <c r="AU16" s="1" t="n">
         <f aca="false">AQ16+100</f>
         <v>1959</v>
       </c>
-      <c r="AV16" s="0" t="n">
+      <c r="AV16" s="1" t="n">
         <f aca="false">AR16+100</f>
         <v>2022</v>
       </c>
-      <c r="AW16" s="0" t="n">
+      <c r="AW16" s="1" t="n">
         <f aca="false">AS16+100</f>
         <v>2034</v>
       </c>
-      <c r="AX16" s="0" t="n">
+      <c r="AX16" s="1" t="n">
         <f aca="false">AV16+100</f>
         <v>2122</v>
       </c>
-      <c r="AY16" s="0" t="n">
+      <c r="AY16" s="1" t="n">
         <f aca="false">AW16+100</f>
         <v>2134</v>
       </c>
-      <c r="AZ16" s="0" t="n">
+      <c r="AZ16" s="1" t="n">
         <f aca="false">AX16+100</f>
         <v>2222</v>
       </c>
-      <c r="BA16" s="0" t="n">
+      <c r="BA16" s="1" t="n">
         <f aca="false">AY16+100</f>
         <v>2234</v>
       </c>
@@ -16387,123 +16368,123 @@
         <f aca="false">S17+100</f>
         <v>1330</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="X17" s="1" t="n">
         <f aca="false">V17+100</f>
         <v>1428</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Y17" s="1" t="n">
         <f aca="false">W17+100</f>
         <v>1430</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="Z17" s="1" t="n">
         <f aca="false">T17+200</f>
         <v>1453</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AA17" s="1" t="n">
         <f aca="false">U17+200</f>
         <v>1455</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AB17" s="1" t="n">
         <f aca="false">X17+100</f>
         <v>1528</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AC17" s="1" t="n">
         <f aca="false">Y17+100</f>
         <v>1530</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AD17" s="1" t="n">
         <f aca="false">AB17+100</f>
         <v>1628</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AE17" s="1" t="n">
         <f aca="false">AC17+100</f>
         <v>1630</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AF17" s="1" t="n">
         <f aca="false">Z17+200</f>
         <v>1653</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AG17" s="1" t="n">
         <f aca="false">AA17+200</f>
         <v>1655</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AH17" s="1" t="n">
         <f aca="false">AD17+100</f>
         <v>1728</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AI17" s="1" t="n">
         <f aca="false">AE17+100</f>
         <v>1730</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AJ17" s="1" t="n">
         <f aca="false">AH17+100</f>
         <v>1828</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AK17" s="1" t="n">
         <f aca="false">AI17+100</f>
         <v>1830</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AL17" s="1" t="n">
         <f aca="false">AF17+200</f>
         <v>1853</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AM17" s="1" t="n">
         <f aca="false">AG17+200</f>
         <v>1855</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AN17" s="1" t="n">
         <f aca="false">AJ17+100</f>
         <v>1928</v>
       </c>
-      <c r="AO17" s="0" t="n">
+      <c r="AO17" s="1" t="n">
         <f aca="false">AK17+100</f>
         <v>1930</v>
       </c>
-      <c r="AP17" s="0" t="n">
+      <c r="AP17" s="1" t="n">
         <f aca="false">AL17+100</f>
         <v>1953</v>
       </c>
-      <c r="AQ17" s="0" t="n">
+      <c r="AQ17" s="1" t="n">
         <f aca="false">AM17+100</f>
         <v>1955</v>
       </c>
-      <c r="AR17" s="0" t="n">
+      <c r="AR17" s="1" t="n">
         <f aca="false">AN17+100</f>
         <v>2028</v>
       </c>
-      <c r="AS17" s="0" t="n">
+      <c r="AS17" s="1" t="n">
         <f aca="false">AO17+100</f>
         <v>2030</v>
       </c>
-      <c r="AT17" s="0" t="n">
+      <c r="AT17" s="1" t="n">
         <f aca="false">AP17+100</f>
         <v>2053</v>
       </c>
-      <c r="AU17" s="0" t="n">
+      <c r="AU17" s="1" t="n">
         <f aca="false">AQ17+100</f>
         <v>2055</v>
       </c>
-      <c r="AV17" s="0" t="n">
+      <c r="AV17" s="1" t="n">
         <f aca="false">AR17+100</f>
         <v>2128</v>
       </c>
-      <c r="AW17" s="0" t="n">
+      <c r="AW17" s="1" t="n">
         <f aca="false">AS17+100</f>
         <v>2130</v>
       </c>
-      <c r="AX17" s="0" t="n">
+      <c r="AX17" s="1" t="n">
         <f aca="false">AV17+100</f>
         <v>2228</v>
       </c>
-      <c r="AY17" s="0" t="n">
+      <c r="AY17" s="1" t="n">
         <f aca="false">AW17+100</f>
         <v>2230</v>
       </c>
-      <c r="AZ17" s="0" t="n">
+      <c r="AZ17" s="1" t="n">
         <f aca="false">AX17+100</f>
         <v>2328</v>
       </c>
-      <c r="BA17" s="0" t="n">
+      <c r="BA17" s="1" t="n">
         <f aca="false">AY17+100</f>
         <v>2330</v>
       </c>
@@ -16538,54 +16519,54 @@
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="n">
+      <c r="A1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="n">
+      <c r="B1" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G1" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="D1" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -19846,45 +19827,45 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O25" activeCellId="0" sqref="O25"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16365" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16365" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="n">
+      <c r="A1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="n">
+      <c r="B1" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G1" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="D1" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -19944,7 +19925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -19995,7 +19976,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -20046,7 +20027,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
@@ -20097,7 +20078,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -20148,7 +20129,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -20199,7 +20180,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
@@ -20250,7 +20231,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -20301,7 +20282,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -20352,7 +20333,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>41</v>
       </c>
@@ -20403,7 +20384,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -20454,7 +20435,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -20505,7 +20486,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
@@ -20801,7 +20782,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>727</v>
@@ -20919,476 +20900,418 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="7" t="n">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="C26" s="7" t="n">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="D26" s="7" t="n">
         <f aca="false">B26+200</f>
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="E26" s="7" t="n">
         <f aca="false">C26+200</f>
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="F26" s="7" t="n">
         <f aca="false">D26+200</f>
-        <v>1213</v>
+        <v>1224</v>
       </c>
       <c r="G26" s="7" t="n">
         <f aca="false">E26+200</f>
-        <v>1214</v>
+        <v>1226</v>
       </c>
       <c r="H26" s="7" t="n">
         <f aca="false">F26+200</f>
-        <v>1413</v>
+        <v>1424</v>
       </c>
       <c r="I26" s="7" t="n">
         <f aca="false">G26+200</f>
-        <v>1414</v>
+        <v>1426</v>
       </c>
       <c r="J26" s="7" t="n">
         <f aca="false">H26+200</f>
-        <v>1613</v>
+        <v>1624</v>
       </c>
       <c r="K26" s="7" t="n">
         <f aca="false">I26+200</f>
-        <v>1614</v>
+        <v>1626</v>
       </c>
       <c r="L26" s="7" t="n">
         <f aca="false">J26+200</f>
-        <v>1813</v>
+        <v>1824</v>
       </c>
       <c r="M26" s="7" t="n">
         <f aca="false">K26+200</f>
-        <v>1814</v>
+        <v>1826</v>
       </c>
       <c r="N26" s="11" t="n">
         <f aca="false">L26+200</f>
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="O26" s="11" t="n">
         <f aca="false">M26+200</f>
-        <v>2014</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B27" s="7" t="n">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="C27" s="7" t="n">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="D27" s="7" t="n">
         <f aca="false">B27+200</f>
-        <v>1024</v>
+        <v>1033</v>
       </c>
       <c r="E27" s="7" t="n">
         <f aca="false">C27+200</f>
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="F27" s="7" t="n">
         <f aca="false">D27+200</f>
-        <v>1224</v>
+        <v>1233</v>
       </c>
       <c r="G27" s="7" t="n">
         <f aca="false">E27+200</f>
-        <v>1226</v>
+        <v>1234</v>
       </c>
       <c r="H27" s="7" t="n">
         <f aca="false">F27+200</f>
-        <v>1424</v>
+        <v>1433</v>
       </c>
       <c r="I27" s="7" t="n">
         <f aca="false">G27+200</f>
-        <v>1426</v>
+        <v>1434</v>
       </c>
       <c r="J27" s="7" t="n">
         <f aca="false">H27+200</f>
-        <v>1624</v>
+        <v>1633</v>
       </c>
       <c r="K27" s="7" t="n">
         <f aca="false">I27+200</f>
-        <v>1626</v>
+        <v>1634</v>
       </c>
       <c r="L27" s="7" t="n">
         <f aca="false">J27+200</f>
-        <v>1824</v>
+        <v>1833</v>
       </c>
       <c r="M27" s="7" t="n">
         <f aca="false">K27+200</f>
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="N27" s="11" t="n">
         <f aca="false">L27+200</f>
-        <v>2024</v>
+        <v>2033</v>
       </c>
       <c r="O27" s="11" t="n">
         <f aca="false">M27+200</f>
-        <v>2026</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B28" s="7" t="n">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="C28" s="7" t="n">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="D28" s="7" t="n">
         <f aca="false">B28+200</f>
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="E28" s="7" t="n">
         <f aca="false">C28+200</f>
-        <v>1034</v>
+        <v>1048</v>
       </c>
       <c r="F28" s="7" t="n">
         <f aca="false">D28+200</f>
-        <v>1233</v>
+        <v>1243</v>
       </c>
       <c r="G28" s="7" t="n">
         <f aca="false">E28+200</f>
-        <v>1234</v>
+        <v>1248</v>
       </c>
       <c r="H28" s="7" t="n">
         <f aca="false">F28+200</f>
-        <v>1433</v>
+        <v>1443</v>
       </c>
       <c r="I28" s="7" t="n">
         <f aca="false">G28+200</f>
-        <v>1434</v>
+        <v>1448</v>
       </c>
       <c r="J28" s="7" t="n">
         <f aca="false">H28+200</f>
-        <v>1633</v>
+        <v>1643</v>
       </c>
       <c r="K28" s="7" t="n">
         <f aca="false">I28+200</f>
-        <v>1634</v>
+        <v>1648</v>
       </c>
       <c r="L28" s="7" t="n">
         <f aca="false">J28+200</f>
-        <v>1833</v>
+        <v>1843</v>
       </c>
       <c r="M28" s="7" t="n">
         <f aca="false">K28+200</f>
-        <v>1834</v>
+        <v>1848</v>
       </c>
       <c r="N28" s="11" t="n">
         <f aca="false">L28+200</f>
-        <v>2033</v>
+        <v>2043</v>
       </c>
       <c r="O28" s="11" t="n">
         <f aca="false">M28+200</f>
-        <v>2034</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="7" t="n">
-        <v>843</v>
+        <v>907</v>
       </c>
       <c r="C29" s="7" t="n">
-        <v>848</v>
+        <v>909</v>
       </c>
       <c r="D29" s="7" t="n">
         <f aca="false">B29+200</f>
-        <v>1043</v>
+        <v>1107</v>
       </c>
       <c r="E29" s="7" t="n">
         <f aca="false">C29+200</f>
-        <v>1048</v>
+        <v>1109</v>
       </c>
       <c r="F29" s="7" t="n">
         <f aca="false">D29+200</f>
-        <v>1243</v>
+        <v>1307</v>
       </c>
       <c r="G29" s="7" t="n">
         <f aca="false">E29+200</f>
-        <v>1248</v>
+        <v>1309</v>
       </c>
       <c r="H29" s="7" t="n">
         <f aca="false">F29+200</f>
-        <v>1443</v>
+        <v>1507</v>
       </c>
       <c r="I29" s="7" t="n">
         <f aca="false">G29+200</f>
-        <v>1448</v>
+        <v>1509</v>
       </c>
       <c r="J29" s="7" t="n">
         <f aca="false">H29+200</f>
-        <v>1643</v>
+        <v>1707</v>
       </c>
       <c r="K29" s="7" t="n">
         <f aca="false">I29+200</f>
-        <v>1648</v>
+        <v>1709</v>
       </c>
       <c r="L29" s="7" t="n">
         <f aca="false">J29+200</f>
-        <v>1843</v>
+        <v>1907</v>
       </c>
       <c r="M29" s="7" t="n">
         <f aca="false">K29+200</f>
-        <v>1848</v>
+        <v>1909</v>
       </c>
       <c r="N29" s="11" t="n">
         <f aca="false">L29+200</f>
-        <v>2043</v>
+        <v>2107</v>
       </c>
       <c r="O29" s="11" t="n">
         <f aca="false">M29+200</f>
-        <v>2048</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="7" t="n">
-        <v>907</v>
+        <v>928</v>
       </c>
       <c r="C30" s="7" t="n">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="D30" s="7" t="n">
         <f aca="false">B30+200</f>
-        <v>1107</v>
+        <v>1128</v>
       </c>
       <c r="E30" s="7" t="n">
         <f aca="false">C30+200</f>
-        <v>1109</v>
+        <v>1129</v>
       </c>
       <c r="F30" s="7" t="n">
         <f aca="false">D30+200</f>
-        <v>1307</v>
+        <v>1328</v>
       </c>
       <c r="G30" s="7" t="n">
         <f aca="false">E30+200</f>
-        <v>1309</v>
+        <v>1329</v>
       </c>
       <c r="H30" s="7" t="n">
         <f aca="false">F30+200</f>
-        <v>1507</v>
+        <v>1528</v>
       </c>
       <c r="I30" s="7" t="n">
         <f aca="false">G30+200</f>
-        <v>1509</v>
+        <v>1529</v>
       </c>
       <c r="J30" s="7" t="n">
         <f aca="false">H30+200</f>
-        <v>1707</v>
+        <v>1728</v>
       </c>
       <c r="K30" s="7" t="n">
         <f aca="false">I30+200</f>
-        <v>1709</v>
+        <v>1729</v>
       </c>
       <c r="L30" s="7" t="n">
         <f aca="false">J30+200</f>
-        <v>1907</v>
+        <v>1928</v>
       </c>
       <c r="M30" s="7" t="n">
         <f aca="false">K30+200</f>
-        <v>1909</v>
+        <v>1929</v>
       </c>
       <c r="N30" s="11" t="n">
         <f aca="false">L30+200</f>
-        <v>2107</v>
+        <v>2128</v>
       </c>
       <c r="O30" s="11" t="n">
         <f aca="false">M30+200</f>
-        <v>2109</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B31" s="7" t="n">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="C31" s="7" t="n">
-        <v>929</v>
+        <v>950</v>
       </c>
       <c r="D31" s="7" t="n">
         <f aca="false">B31+200</f>
-        <v>1128</v>
+        <v>1148</v>
       </c>
       <c r="E31" s="7" t="n">
         <f aca="false">C31+200</f>
-        <v>1129</v>
+        <v>1150</v>
       </c>
       <c r="F31" s="7" t="n">
         <f aca="false">D31+200</f>
-        <v>1328</v>
+        <v>1348</v>
       </c>
       <c r="G31" s="7" t="n">
         <f aca="false">E31+200</f>
-        <v>1329</v>
+        <v>1350</v>
       </c>
       <c r="H31" s="7" t="n">
         <f aca="false">F31+200</f>
-        <v>1528</v>
+        <v>1548</v>
       </c>
       <c r="I31" s="7" t="n">
         <f aca="false">G31+200</f>
-        <v>1529</v>
+        <v>1550</v>
       </c>
       <c r="J31" s="7" t="n">
         <f aca="false">H31+200</f>
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="K31" s="7" t="n">
         <f aca="false">I31+200</f>
-        <v>1729</v>
+        <v>1750</v>
       </c>
       <c r="L31" s="7" t="n">
         <f aca="false">J31+200</f>
-        <v>1928</v>
+        <v>1948</v>
       </c>
       <c r="M31" s="7" t="n">
         <f aca="false">K31+200</f>
-        <v>1929</v>
+        <v>1950</v>
       </c>
       <c r="N31" s="11" t="n">
         <f aca="false">L31+200</f>
-        <v>2128</v>
+        <v>2148</v>
       </c>
       <c r="O31" s="11" t="n">
         <f aca="false">M31+200</f>
-        <v>2129</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" s="7" t="n">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="C32" s="7" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="D32" s="7" t="n">
         <f aca="false">B32+200</f>
-        <v>1148</v>
+        <v>1156</v>
       </c>
       <c r="E32" s="7" t="n">
         <f aca="false">C32+200</f>
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="F32" s="7" t="n">
         <f aca="false">D32+200</f>
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="G32" s="7" t="n">
         <f aca="false">E32+200</f>
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="H32" s="7" t="n">
         <f aca="false">F32+200</f>
-        <v>1548</v>
+        <v>1556</v>
       </c>
       <c r="I32" s="7" t="n">
         <f aca="false">G32+200</f>
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="J32" s="7" t="n">
         <f aca="false">H32+200</f>
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="K32" s="7" t="n">
         <f aca="false">I32+200</f>
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="L32" s="7" t="n">
         <f aca="false">J32+200</f>
-        <v>1948</v>
+        <v>1956</v>
       </c>
       <c r="M32" s="7" t="n">
         <f aca="false">K32+200</f>
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="N32" s="11" t="n">
         <f aca="false">L32+200</f>
-        <v>2148</v>
+        <v>2156</v>
       </c>
       <c r="O32" s="11" t="n">
         <f aca="false">M32+200</f>
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="7" t="n">
-        <v>956</v>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <f aca="false">B33+200</f>
-        <v>1156</v>
-      </c>
-      <c r="E33" s="7" t="n">
-        <f aca="false">C33+200</f>
-        <v>1200</v>
-      </c>
-      <c r="F33" s="7" t="n">
-        <f aca="false">D33+200</f>
-        <v>1356</v>
-      </c>
-      <c r="G33" s="7" t="n">
-        <f aca="false">E33+200</f>
-        <v>1400</v>
-      </c>
-      <c r="H33" s="7" t="n">
-        <f aca="false">F33+200</f>
-        <v>1556</v>
-      </c>
-      <c r="I33" s="7" t="n">
-        <f aca="false">G33+200</f>
-        <v>1600</v>
-      </c>
-      <c r="J33" s="7" t="n">
-        <f aca="false">H33+200</f>
-        <v>1756</v>
-      </c>
-      <c r="K33" s="7" t="n">
-        <f aca="false">I33+200</f>
-        <v>1800</v>
-      </c>
-      <c r="L33" s="7" t="n">
-        <f aca="false">J33+200</f>
-        <v>1956</v>
-      </c>
-      <c r="M33" s="7" t="n">
-        <f aca="false">K33+200</f>
-        <v>2000</v>
-      </c>
-      <c r="N33" s="11" t="n">
-        <f aca="false">L33+200</f>
-        <v>2156</v>
-      </c>
-      <c r="O33" s="11" t="n">
-        <f aca="false">M33+200</f>
         <v>2200</v>
       </c>
     </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21424,15 +21347,31 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="A1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -22133,7 +22072,7 @@
         <f aca="false">F17+300</f>
         <v>1340</v>
       </c>
-      <c r="I17" s="12" t="n">
+      <c r="I17" s="11" t="n">
         <f aca="false">G17+300</f>
         <v>1345</v>
       </c>
@@ -22192,7 +22131,7 @@
         <f aca="false">F18+300</f>
         <v>1352</v>
       </c>
-      <c r="I18" s="12" t="n">
+      <c r="I18" s="11" t="n">
         <f aca="false">G18+300</f>
         <v>1354</v>
       </c>
@@ -22251,7 +22190,7 @@
         <f aca="false">F19+300</f>
         <v>1421</v>
       </c>
-      <c r="I19" s="12" t="n">
+      <c r="I19" s="11" t="n">
         <f aca="false">G19+300</f>
         <v>1422</v>
       </c>
@@ -22310,7 +22249,7 @@
         <f aca="false">F20+300</f>
         <v>1431</v>
       </c>
-      <c r="I20" s="12" t="n">
+      <c r="I20" s="11" t="n">
         <f aca="false">G20+300</f>
         <v>1433</v>
       </c>
@@ -22369,7 +22308,7 @@
         <f aca="false">F21+300</f>
         <v>1453</v>
       </c>
-      <c r="I21" s="12" t="n">
+      <c r="I21" s="11" t="n">
         <f aca="false">G21+300</f>
         <v>1504</v>
       </c>
@@ -22428,7 +22367,7 @@
         <f aca="false">F22+300</f>
         <v>1530</v>
       </c>
-      <c r="I22" s="12" t="n">
+      <c r="I22" s="11" t="n">
         <f aca="false">G22+300</f>
         <v>1533</v>
       </c>
@@ -22487,7 +22426,7 @@
         <f aca="false">F23+300</f>
         <v>1549</v>
       </c>
-      <c r="I23" s="12" t="n">
+      <c r="I23" s="11" t="n">
         <f aca="false">G23+300</f>
         <v>1550</v>
       </c>
@@ -22546,7 +22485,7 @@
         <f aca="false">F24+300</f>
         <v>1601</v>
       </c>
-      <c r="I24" s="12" t="n">
+      <c r="I24" s="11" t="n">
         <f aca="false">G24+300</f>
         <v>1605</v>
       </c>
@@ -22600,25 +22539,41 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R23" activeCellId="0" sqref="R23"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="A1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -22756,7 +22711,7 @@
         <f aca="false">L4+100</f>
         <v>1725</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="11" t="n">
         <f aca="false">M4+100</f>
         <v>1728</v>
       </c>
@@ -22831,7 +22786,7 @@
         <f aca="false">L5+100</f>
         <v>1755</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="11" t="n">
         <f aca="false">M5+100</f>
         <v>1758</v>
       </c>
@@ -22906,7 +22861,7 @@
         <f aca="false">L6+100</f>
         <v>1826</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="11" t="n">
         <f aca="false">M6+100</f>
         <v>1834</v>
       </c>
@@ -22981,7 +22936,7 @@
         <f aca="false">L7+100</f>
         <v>1853</v>
       </c>
-      <c r="O7" s="12" t="n">
+      <c r="O7" s="11" t="n">
         <f aca="false">M7+100</f>
         <v>1854</v>
       </c>
@@ -23056,7 +23011,7 @@
         <f aca="false">L8+100</f>
         <v>1903</v>
       </c>
-      <c r="O8" s="12" t="n">
+      <c r="O8" s="11" t="n">
         <f aca="false">M8+100</f>
         <v>1905</v>
       </c>
@@ -23131,7 +23086,7 @@
         <f aca="false">L9+100</f>
         <v>1931</v>
       </c>
-      <c r="O9" s="12" t="n">
+      <c r="O9" s="11" t="n">
         <f aca="false">M9+100</f>
         <v>1933</v>
       </c>
@@ -23206,7 +23161,7 @@
         <f aca="false">L10+100</f>
         <v>1941</v>
       </c>
-      <c r="O10" s="12" t="n">
+      <c r="O10" s="11" t="n">
         <f aca="false">M10+100</f>
         <v>1944</v>
       </c>
@@ -23858,7 +23813,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23868,42 +23823,42 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="n">
+      <c r="A1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="n">
+      <c r="B1" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G1" s="3" t="n">
+      <c r="E1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -23921,13 +23876,13 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -23969,13 +23924,13 @@
       <c r="M3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
